--- a/Tags.xlsx
+++ b/Tags.xlsx
@@ -1,534 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hosts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
-  <si>
-    <t>Tag Name</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>Google Universal Analytics</t>
-  </si>
-  <si>
-    <t>Google Tag Manager</t>
-  </si>
-  <si>
-    <t>Tag Inspector Realtime</t>
-  </si>
-  <si>
-    <t>Google Ads Audience Tracker</t>
-  </si>
-  <si>
-    <t>OneTrust</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Google Web Font</t>
-  </si>
-  <si>
-    <t>DoubleClick Floodlight</t>
-  </si>
-  <si>
-    <t>AppNexus</t>
-  </si>
-  <si>
-    <t>The Trade Desk</t>
-  </si>
-  <si>
-    <t>Google Authorized Buyers - Cookie Match</t>
-  </si>
-  <si>
-    <t>Verizon Media</t>
-  </si>
-  <si>
-    <t>Facebook Pixel</t>
-  </si>
-  <si>
-    <t>Gigya</t>
-  </si>
-  <si>
-    <t>Google Optimize</t>
-  </si>
-  <si>
-    <t>Index Exchange</t>
-  </si>
-  <si>
-    <t>Rubicon Project</t>
-  </si>
-  <si>
-    <t>BidSwitch</t>
-  </si>
-  <si>
-    <t>PubMatic</t>
-  </si>
-  <si>
-    <t>Fonts.com</t>
-  </si>
-  <si>
-    <t>Cloud.typography</t>
-  </si>
-  <si>
-    <t>Facebook Social Plugins</t>
-  </si>
-  <si>
-    <t>Google Maps</t>
-  </si>
-  <si>
-    <t>Google Ads Conversion</t>
-  </si>
-  <si>
-    <t>Google Ads Remarketing</t>
-  </si>
-  <si>
-    <t>Adobe AudienceManager</t>
-  </si>
-  <si>
-    <t>AddThis</t>
-  </si>
-  <si>
-    <t>Price Spider</t>
-  </si>
-  <si>
-    <t>BlueKai</t>
-  </si>
-  <si>
-    <t>Moat</t>
-  </si>
-  <si>
-    <t>Neustar Aggregate Knowledge</t>
-  </si>
-  <si>
-    <t>MediaMath</t>
-  </si>
-  <si>
-    <t>Google Global Site Tag (gtag.js)</t>
-  </si>
-  <si>
-    <t>DoubleClick Bid Manager</t>
-  </si>
-  <si>
-    <t>Bazaarvoice</t>
-  </si>
-  <si>
-    <t>Survata</t>
-  </si>
-  <si>
-    <t>Roku OneView (DataXu)</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>TubeMogul</t>
-  </si>
-  <si>
-    <t>Twitter Widget</t>
-  </si>
-  <si>
-    <t>Amobee</t>
-  </si>
-  <si>
-    <t>MaxMind</t>
-  </si>
-  <si>
-    <t>iSpot TV</t>
-  </si>
-  <si>
-    <t>Videology</t>
-  </si>
-  <si>
-    <t>LiveIntent</t>
-  </si>
-  <si>
-    <t>GA4</t>
-  </si>
-  <si>
-    <t>Microsoft Advertising Universal Event Tracking</t>
-  </si>
-  <si>
-    <t>Yandex Metrics</t>
-  </si>
-  <si>
-    <t>Amazon Product Ads</t>
-  </si>
-  <si>
-    <t>Ensighten</t>
-  </si>
-  <si>
-    <t>New Relic</t>
-  </si>
-  <si>
-    <t>Tealium</t>
-  </si>
-  <si>
-    <t>Media Innovation Group</t>
-  </si>
-  <si>
-    <t>Twitter Conversion Tracking</t>
-  </si>
-  <si>
-    <t>Yahoo Tag Manager</t>
-  </si>
-  <si>
-    <t>Retargeting</t>
-  </si>
-  <si>
-    <t>Adform</t>
-  </si>
-  <si>
-    <t>Salesforce DMP (Krux)</t>
-  </si>
-  <si>
-    <t>Adobe Analytics</t>
-  </si>
-  <si>
-    <t>PowerReviews</t>
-  </si>
-  <si>
-    <t>LiveRamp</t>
-  </si>
-  <si>
-    <t>Google Recaptcha</t>
-  </si>
-  <si>
-    <t>Mail.Ru Group</t>
-  </si>
-  <si>
-    <t>Adobe Typekit</t>
-  </si>
-  <si>
-    <t>Tapad</t>
-  </si>
-  <si>
-    <t>Hotjar</t>
-  </si>
-  <si>
-    <t>Sqreem</t>
-  </si>
-  <si>
-    <t>eXelate</t>
-  </si>
-  <si>
-    <t>OpenX</t>
-  </si>
-  <si>
-    <t>VK Widget</t>
-  </si>
-  <si>
-    <t>FreeWheel</t>
-  </si>
-  <si>
-    <t>Taboola</t>
-  </si>
-  <si>
-    <t>Drawbridge</t>
-  </si>
-  <si>
-    <t>LinkedIn Insight</t>
-  </si>
-  <si>
-    <t>Webtrends</t>
-  </si>
-  <si>
-    <t>Sizmek</t>
-  </si>
-  <si>
-    <t>ScorecardResearch</t>
-  </si>
-  <si>
-    <t>telaria</t>
-  </si>
-  <si>
-    <t>Adobe Advertising Cloud</t>
-  </si>
-  <si>
-    <t>Adobe Cloud ID Service</t>
-  </si>
-  <si>
-    <t>RhythmOne</t>
-  </si>
-  <si>
-    <t>SpotXchange</t>
-  </si>
-  <si>
-    <t>Unruly</t>
-  </si>
-  <si>
-    <t>ZeoTap</t>
-  </si>
-  <si>
-    <t>Google Classic Analytics</t>
-  </si>
-  <si>
-    <t>MyFonts</t>
-  </si>
-  <si>
-    <t>Snowplow Analytics</t>
-  </si>
-  <si>
-    <t>Outbrain</t>
-  </si>
-  <si>
-    <t>VisualIQ</t>
-  </si>
-  <si>
-    <t>Lucid</t>
-  </si>
-  <si>
-    <t>Placed</t>
-  </si>
-  <si>
-    <t>NinthDecimal</t>
-  </si>
-  <si>
-    <t>Adobe Target</t>
-  </si>
-  <si>
-    <t>Yahoo Dot Tags</t>
-  </si>
-  <si>
-    <t>Heroku</t>
-  </si>
-  <si>
-    <t>Adoric</t>
-  </si>
-  <si>
-    <t>TripleLift</t>
-  </si>
-  <si>
-    <t>Decibel Insight</t>
-  </si>
-  <si>
-    <t>Google Botguard</t>
-  </si>
-  <si>
-    <t>Sharethrough</t>
-  </si>
-  <si>
-    <t>Semasio</t>
-  </si>
-  <si>
-    <t>CookieQ</t>
-  </si>
-  <si>
-    <t>Found on Website</t>
-  </si>
-  <si>
-    <t>Tag URL</t>
-  </si>
-  <si>
-    <t>https://www.google-analytics.com</t>
-  </si>
-  <si>
-    <t>https://i.ytimg.com</t>
-  </si>
-  <si>
-    <t>https://c1.adform.net</t>
-  </si>
-  <si>
-    <t>https://s.amazon-adsystem.com</t>
-  </si>
-  <si>
-    <t>https://ib.adnxs.com</t>
-  </si>
-  <si>
-    <t>https://x.bidswitch.net</t>
-  </si>
-  <si>
-    <t>https://tags.bluekai.com</t>
-  </si>
-  <si>
-    <t>https://ads.stickyadstv.com</t>
-  </si>
-  <si>
-    <t>https://cm.g.doubleclick.net</t>
-  </si>
-  <si>
-    <t>https://ssum-sec.casalemedia.com</t>
-  </si>
-  <si>
-    <t>https://usersync.samplicio.us</t>
-  </si>
-  <si>
-    <t>https://odr.mookie1.com</t>
-  </si>
-  <si>
-    <t>https://aa.agkn.com</t>
-  </si>
-  <si>
-    <t>https://lciapi.ninthdecimal.com</t>
-  </si>
-  <si>
-    <t>https://us-u.openx.net</t>
-  </si>
-  <si>
-    <t>https://pixel.placed.com</t>
-  </si>
-  <si>
-    <t>https://image6.pubmatic.com</t>
-  </si>
-  <si>
-    <t>https://sync.1rx.io</t>
-  </si>
-  <si>
-    <t>https://token.rubiconproject.com</t>
-  </si>
-  <si>
-    <t>https://usermatch.krxd.net</t>
-  </si>
-  <si>
-    <t>https://sb.scorecardresearch.com</t>
-  </si>
-  <si>
-    <t>https://sync.search.spotxchange.com</t>
-  </si>
-  <si>
-    <t>https://px.surveywall-api.survata.com</t>
-  </si>
-  <si>
-    <t>https://sync.taboola.com</t>
-  </si>
-  <si>
-    <t>https://analytics.twitter.com</t>
-  </si>
-  <si>
-    <t>https://pixel.advertising.com, https://cms.analytics.yahoo.com, https://ups.analytics.yahoo.com, https://ads.yahoo.com</t>
-  </si>
-  <si>
-    <t>https://t.myvisualiq.net</t>
-  </si>
-  <si>
-    <t>https://spl.zeotap.com</t>
-  </si>
-  <si>
-    <t>https://loadus.exelator.com</t>
-  </si>
-  <si>
-    <t>https://pi.ispot.tv</t>
-  </si>
-  <si>
-    <t>https://amazon.partners.tremorhub.com</t>
-  </si>
-  <si>
-    <t>https://maps.googleapis.com/maps</t>
-  </si>
-  <si>
-    <t>https://fonts.googleapis.com</t>
-  </si>
-  <si>
-    <t>https://www.googletagmanager.com/gtag</t>
-  </si>
-  <si>
-    <t>https://www.googletagmanager.com/gtm.js</t>
-  </si>
-  <si>
-    <t>https://cdn.pricespider.com</t>
-  </si>
-  <si>
-    <t>https://cdns.gigya.com, https://cdns.us1.gigya.com, https://accounts.us1.gigya.com</t>
-  </si>
-  <si>
-    <t>https://msftenterprise.sc.omtrdc.net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dpm.demdex.net, https://mscom.demdex.net, </t>
-  </si>
-  <si>
-    <t>https://dpm.demdex.net/id</t>
-  </si>
-  <si>
-    <t>https://c.bing.com</t>
-  </si>
-  <si>
-    <t>https://cloud.typography.com</t>
-  </si>
-  <si>
-    <t>doubleclick.net</t>
-  </si>
-  <si>
-    <t>https://connect.facebook.net</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="FF333333"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -537,6 +74,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8E8E8"/>
       </patternFill>
     </fill>
   </fills>
@@ -551,37 +93,97 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="gsk_report_jan_2021"/>
@@ -63964,1097 +63566,1450 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col width="43" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="33.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="34.5703125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tag Name</t>
+        </is>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>104</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Found on Website</t>
+        </is>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>105</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Tag URL</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
       </c>
-      <c r="B2" t="str">
+      <c r="B2">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A2,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://4wayspray.com</v>
+        <v/>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>107</v>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>https://i.ytimg.com</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Google Universal Analytics</t>
+        </is>
       </c>
-      <c r="B3" t="str">
+      <c r="B3">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A3,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://4wayspray.com</v>
+        <v/>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.google-analytics.com</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Google Tag Manager</t>
+        </is>
       </c>
-      <c r="B4" t="str">
+      <c r="B4">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A4,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://4wayspray.com</v>
+        <v/>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>140</v>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtm.js</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tag Inspector Realtime</t>
+        </is>
       </c>
-      <c r="B5" t="str">
+      <c r="B5">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A5,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://4wayspray.com</v>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Google Ads Audience Tracker</t>
+        </is>
       </c>
-      <c r="B6" t="str">
+      <c r="B6">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A6,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://4wayspray.com</v>
+        <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>OneTrust</t>
+        </is>
       </c>
-      <c r="B7" t="str">
+      <c r="B7">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A7,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://4wayspray.com</v>
+        <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DoubleClick</t>
+        </is>
       </c>
-      <c r="B8" t="str">
+      <c r="B8">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A8,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.ca</v>
+        <v/>
       </c>
-      <c r="C8" t="s">
-        <v>148</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>doubleclick.net</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Google Web Font</t>
+        </is>
       </c>
-      <c r="B9" t="str">
+      <c r="B9">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A9,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.ca</v>
+        <v/>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>138</v>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>https://fonts.googleapis.com</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DoubleClick Floodlight</t>
+        </is>
       </c>
-      <c r="B10" t="str">
+      <c r="B10">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A10,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AppNexus</t>
+        </is>
       </c>
-      <c r="B11" t="str">
+      <c r="B11">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A11,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>110</v>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>https://ib.adnxs.com</t>
+        </is>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Trade Desk</t>
+        </is>
       </c>
-      <c r="B12" t="str">
+      <c r="B12">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A12,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Google Authorized Buyers - Cookie Match</t>
+        </is>
       </c>
-      <c r="B13" t="str">
+      <c r="B13">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A13,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>https://cm.g.doubleclick.net</t>
+        </is>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Verizon Media</t>
+        </is>
       </c>
-      <c r="B14" t="str">
+      <c r="B14">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A14,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>131</v>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>https://pixel.advertising.com, https://cms.analytics.yahoo.com, https://ups.analytics.yahoo.com, https://ads.yahoo.com</t>
+        </is>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Facebook Pixel</t>
+        </is>
       </c>
-      <c r="B15" t="str">
+      <c r="B15">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A15,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gigya</t>
+        </is>
       </c>
-      <c r="B16" t="str">
+      <c r="B16">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A16,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>142</v>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>https://cdns.gigya.com, https://cdns.us1.gigya.com, https://accounts.us1.gigya.com</t>
+        </is>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Google Optimize</t>
+        </is>
       </c>
-      <c r="B17" t="str">
+      <c r="B17">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A17,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://advil.com</v>
+        <v/>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Index Exchange</t>
+        </is>
       </c>
-      <c r="B18" t="str">
+      <c r="B18">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A18,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>115</v>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>https://ssum-sec.casalemedia.com</t>
+        </is>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rubicon Project</t>
+        </is>
       </c>
-      <c r="B19" t="str">
+      <c r="B19">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A19,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>124</v>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>https://token.rubiconproject.com</t>
+        </is>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BidSwitch</t>
+        </is>
       </c>
-      <c r="B20" t="str">
+      <c r="B20">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A20,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>111</v>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>https://x.bidswitch.net</t>
+        </is>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PubMatic</t>
+        </is>
       </c>
-      <c r="B21" t="str">
+      <c r="B21">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A21,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>122</v>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>https://image6.pubmatic.com</t>
+        </is>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fonts.com</t>
+        </is>
       </c>
-      <c r="B22" t="str">
+      <c r="B22">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A22,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.bg</v>
+        <v/>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cloud.typography</t>
+        </is>
       </c>
-      <c r="B23" t="str">
+      <c r="B23">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A23,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.bg</v>
+        <v/>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>147</v>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>https://cloud.typography.com</t>
+        </is>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Facebook Social Plugins</t>
+        </is>
       </c>
-      <c r="B24" t="str">
+      <c r="B24">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A24,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://advil.com</v>
+        <v/>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>149</v>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>https://connect.facebook.net</t>
+        </is>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Google Maps</t>
+        </is>
       </c>
-      <c r="B25" t="str">
+      <c r="B25">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A25,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>137</v>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>https://maps.googleapis.com/maps</t>
+        </is>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Google Ads Conversion</t>
+        </is>
       </c>
-      <c r="B26" t="str">
+      <c r="B26">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A26,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Google Ads Remarketing</t>
+        </is>
       </c>
-      <c r="B27" t="str">
+      <c r="B27">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A27,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Adobe AudienceManager</t>
+        </is>
       </c>
-      <c r="B28" t="str">
+      <c r="B28">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A28,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>144</v>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://dpm.demdex.net, https://mscom.demdex.net, </t>
+        </is>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AddThis</t>
+        </is>
       </c>
-      <c r="B29" t="str">
+      <c r="B29">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A29,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Price Spider</t>
+        </is>
       </c>
-      <c r="B30" t="str">
+      <c r="B30">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A30,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.ca</v>
+        <v/>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>141</v>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>https://cdn.pricespider.com</t>
+        </is>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BlueKai</t>
+        </is>
       </c>
-      <c r="B31" t="str">
+      <c r="B31">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A31,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>112</v>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>https://tags.bluekai.com</t>
+        </is>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Moat</t>
+        </is>
       </c>
-      <c r="B32" t="str">
+      <c r="B32">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A32,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Neustar Aggregate Knowledge</t>
+        </is>
       </c>
-      <c r="B33" t="str">
+      <c r="B33">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A33,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>118</v>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>https://aa.agkn.com</t>
+        </is>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MediaMath</t>
+        </is>
       </c>
-      <c r="B34" t="str">
+      <c r="B34">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A34,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://advil.com</v>
+        <v/>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Google Global Site Tag (gtag.js)</t>
+        </is>
       </c>
-      <c r="B35" t="str">
+      <c r="B35">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A35,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.ca</v>
+        <v/>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>139</v>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>https://www.googletagmanager.com/gtag</t>
+        </is>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DoubleClick Bid Manager</t>
+        </is>
       </c>
-      <c r="B36" t="str">
+      <c r="B36">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A36,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.cl</v>
+        <v/>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Bazaarvoice</t>
+        </is>
       </c>
-      <c r="B37" t="str">
+      <c r="B37">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A37,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Survata</t>
+        </is>
       </c>
-      <c r="B38" t="str">
+      <c r="B38">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A38,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>128</v>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>https://px.surveywall-api.survata.com</t>
+        </is>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Roku OneView (DataXu)</t>
+        </is>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A39,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A40,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=fr</v>
+        <v/>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TubeMogul</t>
+        </is>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A41,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=fr</v>
+        <v/>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Twitter Widget</t>
+        </is>
       </c>
-      <c r="B42" t="str">
+      <c r="B42">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A42,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://alikal.com.ar</v>
+        <v/>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Amobee</t>
+        </is>
       </c>
-      <c r="B43" t="str">
+      <c r="B43">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A43,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MaxMind</t>
+        </is>
       </c>
-      <c r="B44" t="str">
+      <c r="B44">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A44,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://enoliquid.co.in</v>
+        <v/>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>iSpot TV</t>
+        </is>
       </c>
-      <c r="B45" t="str">
+      <c r="B45">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A45,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>135</v>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>https://pi.ispot.tv</t>
+        </is>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Videology</t>
+        </is>
       </c>
-      <c r="B46" t="str">
+      <c r="B46">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A46,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LiveIntent</t>
+        </is>
       </c>
-      <c r="B47" t="str">
+      <c r="B47">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A47,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GA4</t>
+        </is>
       </c>
-      <c r="B48" t="str">
+      <c r="B48">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A48,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://advil.com</v>
+        <v/>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Microsoft Advertising Universal Event Tracking</t>
+        </is>
       </c>
-      <c r="B49" t="str">
+      <c r="B49">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A49,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://amp.flonase.com</v>
+        <v/>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>146</v>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>https://c.bing.com</t>
+        </is>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Yandex Metrics</t>
+        </is>
       </c>
-      <c r="B50" t="str">
+      <c r="B50">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A50,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ru</v>
+        <v/>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Amazon Product Ads</t>
+        </is>
       </c>
-      <c r="B51" t="str">
+      <c r="B51">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A51,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>109</v>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>https://s.amazon-adsystem.com</t>
+        </is>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ensighten</t>
+        </is>
       </c>
-      <c r="B52" t="str">
+      <c r="B52">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A52,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://alli.it</v>
+        <v/>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>New Relic</t>
+        </is>
       </c>
-      <c r="B53" t="str">
+      <c r="B53">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A53,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tealium</t>
+        </is>
       </c>
-      <c r="B54" t="str">
+      <c r="B54">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A54,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://aquafresh.ca/?iso=en</v>
+        <v/>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Media Innovation Group</t>
+        </is>
       </c>
-      <c r="B55" t="str">
+      <c r="B55">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A55,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>https://odr.mookie1.com</t>
+        </is>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Twitter Conversion Tracking</t>
+        </is>
       </c>
-      <c r="B56" t="str">
+      <c r="B56">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A56,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>130</v>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>https://analytics.twitter.com</t>
+        </is>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Yahoo Tag Manager</t>
+        </is>
       </c>
-      <c r="B57" t="str">
+      <c r="B57">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A57,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://activir.jp</v>
+        <v/>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Retargeting</t>
+        </is>
       </c>
-      <c r="B58" t="str">
+      <c r="B58">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A58,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://activir.jp</v>
+        <v/>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Adform</t>
+        </is>
       </c>
-      <c r="B59" t="str">
+      <c r="B59">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A59,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>108</v>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>https://c1.adform.net</t>
+        </is>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Salesforce DMP (Krux)</t>
+        </is>
       </c>
-      <c r="B60" t="str">
+      <c r="B60">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A60,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>125</v>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>https://usermatch.krxd.net</t>
+        </is>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Adobe Analytics</t>
+        </is>
       </c>
-      <c r="B61" t="str">
+      <c r="B61">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A61,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://alli.it</v>
+        <v/>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>143</v>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>https://msftenterprise.sc.omtrdc.net</t>
+        </is>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PowerReviews</t>
+        </is>
       </c>
-      <c r="B62" t="str">
+      <c r="B62">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A62,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LiveRamp</t>
+        </is>
       </c>
-      <c r="B63" t="str">
+      <c r="B63">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A63,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Google Recaptcha</t>
+        </is>
       </c>
-      <c r="B64" t="str">
+      <c r="B64">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A64,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://centrumnewyear.com</v>
+        <v/>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mail.Ru Group</t>
+        </is>
       </c>
-      <c r="B65" t="str">
+      <c r="B65">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A65,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://checkderm.ru</v>
+        <v/>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Adobe Typekit</t>
+        </is>
       </c>
-      <c r="B66" t="str">
+      <c r="B66">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A66,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://excedrin.com</v>
+        <v/>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tapad</t>
+        </is>
       </c>
-      <c r="B67" t="str">
+      <c r="B67">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A67,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hotjar</t>
+        </is>
       </c>
-      <c r="B68" t="str">
+      <c r="B68">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A68,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://dolex.com.co</v>
+        <v/>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sqreem</t>
+        </is>
       </c>
-      <c r="B69" t="str">
+      <c r="B69">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A69,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://flunase.jp</v>
+        <v/>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>eXelate</t>
+        </is>
       </c>
-      <c r="B70" t="str">
+      <c r="B70">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A70,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>134</v>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>https://loadus.exelator.com</t>
+        </is>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>OpenX</t>
+        </is>
       </c>
-      <c r="B71" t="str">
+      <c r="B71">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A71,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>120</v>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>https://us-u.openx.net</t>
+        </is>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VK Widget</t>
+        </is>
       </c>
-      <c r="B72" t="str">
+      <c r="B72">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A72,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://checkderm.ru</v>
+        <v/>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>72</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FreeWheel</t>
+        </is>
       </c>
-      <c r="B73" t="str">
+      <c r="B73">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A73,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>113</v>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>https://ads.stickyadstv.com</t>
+        </is>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>73</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Taboola</t>
+        </is>
       </c>
-      <c r="B74" t="str">
+      <c r="B74">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A74,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>129</v>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>https://sync.taboola.com</t>
+        </is>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>74</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Drawbridge</t>
+        </is>
       </c>
-      <c r="B75" t="str">
+      <c r="B75">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A75,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>75</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LinkedIn Insight</t>
+        </is>
       </c>
-      <c r="B76" t="str">
+      <c r="B76">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A76,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>76</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Webtrends</t>
+        </is>
       </c>
-      <c r="B77" t="str">
+      <c r="B77">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A77,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://lamisil.dk</v>
+        <v/>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>77</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sizmek</t>
+        </is>
       </c>
-      <c r="B78" t="str">
+      <c r="B78">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A78,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>78</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ScorecardResearch</t>
+        </is>
       </c>
-      <c r="B79" t="str">
+      <c r="B79">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A79,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>126</v>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>https://sb.scorecardresearch.com</t>
+        </is>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>79</v>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>telaria</t>
+        </is>
       </c>
-      <c r="B80" t="str">
+      <c r="B80">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A80,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>136</v>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>https://amazon.partners.tremorhub.com</t>
+        </is>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>80</v>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Adobe Advertising Cloud</t>
+        </is>
       </c>
-      <c r="B81" t="str">
+      <c r="B81">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A81,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Adobe Cloud ID Service</t>
+        </is>
       </c>
-      <c r="B82" t="str">
+      <c r="B82">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A82,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>145</v>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>https://dpm.demdex.net/id</t>
+        </is>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>82</v>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>RhythmOne</t>
+        </is>
       </c>
-      <c r="B83" t="str">
+      <c r="B83">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A83,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>123</v>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>https://sync.1rx.io</t>
+        </is>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>83</v>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SpotXchange</t>
+        </is>
       </c>
-      <c r="B84" t="str">
+      <c r="B84">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A84,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>127</v>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>https://sync.search.spotxchange.com</t>
+        </is>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>84</v>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Unruly</t>
+        </is>
       </c>
-      <c r="B85" t="str">
+      <c r="B85">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A85,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>85</v>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ZeoTap</t>
+        </is>
       </c>
-      <c r="B86" t="str">
+      <c r="B86">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A86,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>133</v>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>https://spl.zeotap.com</t>
+        </is>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>86</v>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Google Classic Analytics</t>
+        </is>
       </c>
-      <c r="B87" t="str">
+      <c r="B87">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A87,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://alli.it</v>
+        <v/>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>87</v>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MyFonts</t>
+        </is>
       </c>
-      <c r="B88" t="str">
+      <c r="B88">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A88,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.ca</v>
+        <v/>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Snowplow Analytics</t>
+        </is>
       </c>
-      <c r="B89" t="str">
+      <c r="B89">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A89,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>89</v>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Outbrain</t>
+        </is>
       </c>
-      <c r="B90" t="str">
+      <c r="B90">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A90,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>90</v>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VisualIQ</t>
+        </is>
       </c>
-      <c r="B91" t="str">
+      <c r="B91">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A91,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>132</v>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>https://t.myvisualiq.net</t>
+        </is>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>91</v>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Lucid</t>
+        </is>
       </c>
-      <c r="B92" t="str">
+      <c r="B92">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A92,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>116</v>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>https://usersync.samplicio.us</t>
+        </is>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>92</v>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Placed</t>
+        </is>
       </c>
-      <c r="B93" t="str">
+      <c r="B93">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A93,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>121</v>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>https://pixel.placed.com</t>
+        </is>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>93</v>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NinthDecimal</t>
+        </is>
       </c>
-      <c r="B94" t="str">
+      <c r="B94">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A94,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://abreva.com</v>
+        <v/>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>119</v>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>https://lciapi.ninthdecimal.com</t>
+        </is>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>94</v>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Adobe Target</t>
+        </is>
       </c>
-      <c r="B95" t="str">
+      <c r="B95">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A95,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://biotene.com.au</v>
+        <v/>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>95</v>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Yahoo Dot Tags</t>
+        </is>
       </c>
-      <c r="B96" t="str">
+      <c r="B96">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A96,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://enoantacid.ca</v>
+        <v/>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>96</v>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Heroku</t>
+        </is>
       </c>
-      <c r="B97" t="str">
+      <c r="B97">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A97,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://gskbusinessonline.gr</v>
+        <v/>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>97</v>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Adoric</t>
+        </is>
       </c>
-      <c r="B98" t="str">
+      <c r="B98">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A98,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://gskhealthpartner.com/en-gb</v>
+        <v/>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TripleLift</t>
+        </is>
       </c>
-      <c r="B99" t="str">
+      <c r="B99">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A99,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://mydenturecare.com</v>
+        <v/>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>99</v>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Decibel Insight</t>
+        </is>
       </c>
-      <c r="B100" t="str">
+      <c r="B100">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A100,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://centrum.com</v>
+        <v/>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Google Botguard</t>
+        </is>
       </c>
-      <c r="B101" t="str">
+      <c r="B101">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A101,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://chapstick.com</v>
+        <v/>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>101</v>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sharethrough</t>
+        </is>
       </c>
-      <c r="B102" t="str">
+      <c r="B102">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A102,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://mydenturecare.com</v>
+        <v/>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>102</v>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Semasio</t>
+        </is>
       </c>
-      <c r="B103" t="str">
+      <c r="B103">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A103,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://mydenturecare.com</v>
+        <v/>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CookieQ</t>
+        </is>
       </c>
-      <c r="B104" t="str">
+      <c r="B104">
         <f>INDEX([1]gsk_report_jan_2021!$A:$A,MATCH(A104,[1]gsk_report_jan_2021!$B:$B,0))</f>
-        <v>http://panadol.ke</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C35" r:id="rId2"/>
-    <hyperlink ref="C49" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C9" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Host Category</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Link Type</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>